--- a/docs/wip_diagnostika_processing.xlsx
+++ b/docs/wip_diagnostika_processing.xlsx
@@ -10,7 +10,8 @@
   <sheets>
     <sheet name="Šimonek" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="processing" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="to_export" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="to_export" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="648">
   <si>
     <t xml:space="preserve">věk</t>
   </si>
@@ -1270,6 +1271,833 @@
   </si>
   <si>
     <t xml:space="preserve">Porovnávání</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Přiřadí barvu (základní barvy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na pokyn ukáže požadovanou barvu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojmenuje barvu (základní)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odliší výrazně jiný obrázek v řadě</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zrakové rozlišování (Zraková diferenciace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odliší obrázek v řadě lišící se horizontální polohou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odliší obrázek v řadě lišící se detaily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odliší shodné a neshodné dvojice lišící se detailem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odliší obrázek v řadě lišící se vertikální polohou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odliší shodné a neshodné dvojice lišící se vertikální polohou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poskládá obrázek ze dvou částí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Část a celek (Zraková analýza a syntéza)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poskládá obrázek ze čtyř částí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poskládá obrázek z několika částí</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Složí tvar z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">několika částí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">na předlohu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Složí tvar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> z několika částí </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">podle předlohy</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamatuje si 3 předměty, pozná, který chybí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamatuje si 3 obrázky, pozná, který chybí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ze šesti obrázků si tři pamatuje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyhledá daný první objekt ve kupině zleva doprava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokalizuje zvuk (ukáže směr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozná předměty podle zvuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova s vizuálním podnětem (změna hlásky) 
+hodiny – holínky
+bota – nota
+Tráva – kráva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sluchové rozlišování (sluchová diferenciace)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova: bez vizuálního podnětu (změna hlásky)
+most – kost
+kniha – kniha
+udice – ulice
+hrady – brady
+vločka – vločka
+konec – kopec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova s vizuálním podnětem (změna samohlásky) 
+kapr - kopr
+perník – parník</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova bez vizuálního podnětu (změna samohlásky) 
+plot - plat
+drak - drak
+kus - kos
+sud – sad
+slavit – slevit
+les – les</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova s vizuálním podnětem (znělé a neznělé hlásky, sykavky)
+kos – koš
+kosa – koza
+pije – bije
+pupen - buben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova bez vizuálního podnětu (znělé a neznělé hlásky, sykavky)
+hrad – hrad
+zem – sem
+ples – pleš
+tělo – dělo
+myš – myš
+noc – nos
+vozy – vosy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova s vizuálním podnětem (změna délky)
+Lyže - líže
+Páni – paní</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova: bez vizuálního podnětu (změna dělky)
+Dráha – drahá
+kára – kárá
+žila – žíla
+lak – lák
+síla – síla
+pára – párá
+vila - víla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova s vizuálním podnětem (změna měkčení)
+nemá – němá
+hrozny – hrozní</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slova bez vizuálního podnětu (změna měkčení)
+čistí – čistý
+dýky – díky
+mladý – mladý
+lety – letí
+hrady – hradí
+psaní – psaní
+Tyká - tiká</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší slabiky:
+tam – dam
+dlo – plo
+tam – tam
+čil – žil
+don – don
+fal – val
+hal – chal
+bro – bro
+dyn – din
+zni – zny
+tyl – tyl
+kni – kny
+díl – dýl
+pny – pny
+del – děl
+těk - tek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopakuje větu ze tří slov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopakuje tři nesouvisející slova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopakuje větu ze čtyř slov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopakuje čtyři nesouvisející slova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopakuje větu z pěti slov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopakuje pět nesouvisejících slov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyhledá rýmující se dvojice
+Drak – mrak
+míč – klíč
+pes – les
+metr – svetr
+tužka - hruška</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Určí poslední souhlásku ve slově (les)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovní kopaná</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z hlásek složí slovo (uzavřenou slabiku p-e-s)
+Pes, pán, míč, dům, myš, hůl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jednoslabičné slovo analyzuje na hlásky (myš)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z hlásek složí dvouslabičné slovo (k-o-l-o)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dvouslabičné slovo analyzuje na hlásky (voda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Určí, zda dvě krátké rytmické struktury jsou shodné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Určí, zda dvě delší rytmické struktury jsou shodné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napodobí rytmus (2-4 tóny, více)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hrubá motorika, grafomotorika a kresba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zasouvání kolíčků do desky
+1, žluté kolíčky
+2. bezbarevné kolíčky
+3. modré kolíčky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navlékání korálků</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provlékání</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dotkne se prstem každého prstu na ruce bříška palce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Další činnosti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmatové vnímání (Taktilní percepce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozná hmatem zvířátka (velikosti cca 10cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší různé povrchy, materiály</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreslení nevyhledáva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spontánní kresba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Čáranice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojmenování čáranice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hlavonožec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postava (hlava, trup, končetiny)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Přibývajíci detaily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Různorodost námětú, nejčastěji kreslí:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Čára svislá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spodní oblouk s vratným tahem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uvolnění ruky, tlak na podložku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Čára mezi dvěma liniemi (dráhy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateralita ruky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zasouvání kostek do otvorů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skládání mozaiky z korálků, či hříbečků</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roztáčení káči</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvonění zvonečkem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumování</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hod míčem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutálení míče, trefování kuželek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Šroubování uzávěrů lahví</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Šroubování matičky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zatloukání kladívkem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hra s pískem – používání lopatky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvedání kbelíčku s pískem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Střihání</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dívání se do kukátka, krasohledu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateralita oka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dívání se do lahvičky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dívání se do klíčové dírky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateralita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexikálně-sémantická rovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Správně používá slova ,,ano, ne”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tvoří slova podobného významu (synonyma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozná a vymyslí slova stejného zvuku, ale různého významu (homonyma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretuje pohádky, příběhy bez obrázkového doprovodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chápe a ve správném pořadí realizuje i poměrně dlouhé a komplikovanější pokyny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mluví ve větách, k podstatným jménům a slovesům postupně přidává přídavná jména, zájmena atd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozlišuje mezi jednotným a množným číslem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Užívá čas minulý, přítomný, budoucí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uřednostňuje verbální formu komunikace, pomocí řeči dosahuje cíle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Řekne své jméno, jména sourozenců, kamarádů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Řečový projev po obsahové i formální stránce odpovídá kritériím běžné konverzace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktivně a spontánně navazuje řečový kontakt s dětmi i dospělými</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokáže zformulovat otázku, adekvátně odpovědět na otázku (samostatně a smysluplně)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smysluplně vyjádří myšlenku, nápad, mínění, popíše situaci, událost, vyjádří svoje pocity, prožitky…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Řekne svoje jméno a příjmení, jména rodičů, sourozenců, kamarádů, učitelek, svoji adresu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prvky neverbální komunikace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Výslovnost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foneticko – fonologická rovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artikulační obratnost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vnímání prostoru, pojmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vnímání prostoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Předložkové vazby před za, nad, pod, vedle, mezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">První, poslední</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orientace v okolí – dítě ví, jak se jde do obchodu, do školky.…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vpravo, vlevo, na vlastním těle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vpravo, vlevo – umístění předmětu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vpravo, vlevo na druhé osobě</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vnímání času</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší dříve, později (seřadí dva obrázky)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seřadí obrázky podle posloupnosti děje, jmenuje, co se stalo nejdříve, později, naposled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozliší pojmy nejdříve, před tím, nyní, potom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojmy včera, dnes, zítra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malý x velký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porovnávání, pojmy, vztahy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Základní matematické představy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodně x málo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Všechny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krátký x dlouhý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Úzký x široký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nízký x vysoký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prázdný x plný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stejně, vytváření dvojic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méně x více – výrazný rozdíl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menší x větší</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kratší x delší</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nižší x vyšší</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Některé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Žádné, nic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méně, více, stejně při odlišné velikosti a uspořádání prvků</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O jeden více</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O jeden méně</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Třídění, tvoření skupin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podle dvou kritérií (žluté kruhy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podle tří kritérií (malé žluté kruhy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seřadí: malý, střední, velký
+Vysoký, vyšší, nejvyšší
+málo, méně, nejméně</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojmenuje: malý, střední, velký
+vysoký, vyšší, nejvyšší
+málo, méně, nejméně</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Množství do dvou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Množství do tří</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Množství do čtyř</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Množství do pěti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Množství do šesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Množství do …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postupně se učí ovládat své chování a brát v úvahu ostatní děti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postupně chápe, v čem spočívá střídání, ale ne vždy je schopné a ochotné ho dodržet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Začíná kooperovat s dětmi, respektovat je (učí se počkat, až na něj příjde řada, chápe, že je nutné se rozdělit…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zvyká si říkat ,,děkuji, prosím, dobrý den, na shledanou…” (zpočátku jako odezvu, po připomenutí, ještě neužíva spontánne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postupně se učí chápat a dodržovat pravidla chování a jednání (neubližovat si navzájem, umět navázat kontakt, poprosit, požádat…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projevuje soucit, poskytuje útěchu (výrazem, gestem, slovně…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V případě konfliktu se uchyluje spíše ke slovním, než tělesným výpadům</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rádo se kamarádí (případně uzavírá přátelství s jedním či dvěma dětmi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vůči mladším dětem projevuje náklonnost, chová se ochranitelsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umí se vcítit do druhého, myslet na něj, podělit se, půjčit, dávat dárky…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vesměs dodržuje základní pravidla slušného chování a zdvořilostní pravidla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domluví se s ostatními (umí vyjádřit svoje nápady, potřeby, požádat o něco, dokáže hájit svůj názor…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spolupracuje, zapojuje se do činností ve skupině a vzájemně pomáhá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokáže přijmout, že jiné dítě získá pozici, výhody, pozornost, kterou mělo ono samo před chvílí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Správně reaguje na pokyny autority (na prosbu, požadavek, zákaz, je přístupnější argumentům dospělého…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umí zhodnotit pod vedením dospělého následky vlastního chování v jednoduchých situacích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na veřejnosti se chová přiměřeně (v kině, v divadle, v obchodě, u lékaře…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vědomě projevuje zdvořilostní chování (pozdraví, přivítá se, rozloučí se, přeje dobrou chuť, dobré ráno, dobrou noc, odpovídá na otázky…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Začíná se rozvíjet smysl pro morálku (dokáže rozpoznat vhodné či nevhodné chování, projevuje ohleduplnost, čestnost, soucit…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokáže odmítnout nežádoucí chování (lež, nespravedlnost, ubližování, odolá navádění k něčemu nesprávnému, odmítne, co je mu nepříjemné…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zná základní pravidla chování na ulici (přecházení, správné reagování na světelnou signalizaci…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samostatněji plní i náročnější úkoly a zhodnotí výsledky (co jsem udělal dobře, co špatně, při různých činnostech projevuje samostatnost, rozhodnost, nebojácnost, vytrvalost, otevřenost…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Začíná rozlišovat mezi hrou a úkolem (rozvíjí smysl pro povinnost, odpovědnost, dokončení započaté práce, pomoc druhým…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapojuje se mezi ostatní děti do her, při nichž je třeba rozhodovat, rozdělit role, dodržovat určitá pravidla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staví z kostek (komín, vláček, most)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navléká větší dřevěné korálky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zastrká kolíky a jednoduché tvary do otvorů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hraje si s vodou, hlínou, pískem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napodobuje někoho nebo něco (krmí panenku, nakládá auto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbolická hra ,,jen jako”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Má rádo hračky, které jezdí (odrážedlo, tříkolku), vymýšlí jízdní dráhy pro autíčka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hraje si s pískem (dělá bábovičky, staví hrady, tunely)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staví z kostek, jednoduchých stavebnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skládá jednoduché puzzle, skládanky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hraje si s figurkami lidí, zvířat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hraje si jako ,,doopravdy” na vaření, na doktora, prodavače, opraváře, farmáře</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hraje si s převleky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleduje hru ostatních a již se po kratší dobu účastní hry s jiným dítětem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pohybové hry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstruktivní hry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Námětové hry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hry s převleky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Společenské hry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didaktické hry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukodělné (výtvarné) činnosti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyhledává hraní s dětmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akceptuje pravidla soutěživých her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daří se mu vyrovnat s prohrou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Při hrách uplatňuje iniciativu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soustředení na hru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebeobsluha – samostatnost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musí být upozorněno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jde samo na WC (stáhne, natáhne si kalhotky, kalhoty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Při spaní je suché (vydrží nebo se probudí v případě potřeby)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Správně používá toaletní papír</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hygienu udržuje samostatně (jde samo, použije toaletní papír, splachovací zařízení, umyje a utře si ruce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opláchne si ruce, utře se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namydlí si ruce, umyje si obličej, utře se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Učí se samo si čistit zuby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stáhne a natáhne si tričko, svetr, když ho má z poloviny na hlavě</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obleče a vysleče si jednoducé oblečení (tričko, tepláky…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obleče a vysvleče si ponožky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samostatněji se obuje a vyzuje (bez zavázání tkaniček)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snaží se ukládat věci na správné místo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samostatně se obleče bez zavazování bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zkouší zavazovat tkanićky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokáže pojmenovat jednotlivé druhy a části oblečení a zvolit vhodné oblečení a obuv podle počasí a podle příležitosti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jí samo, z vlastního talíře</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomáhá s chystáním předmětů ke stolování (prostírání, lžíce…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Učí se napichovat vidličkou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jí samstatně a čistě lžičkou i vidličkou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Začíná používat příborový nůž</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Během celého jídla sedí u stolu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namaže si chleba s dopomocí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalije si nápoj ze džbánu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samostatně si namaže chleba</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +2112,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1380,6 +2208,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1852,7 +2686,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2629,6 +3463,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2709,11 +3547,11 @@
   </sheetPr>
   <dimension ref="A1:AU72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG21" activeCellId="1" sqref="A1:C314 AG21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG21" activeCellId="0" sqref="AG21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.828125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
@@ -7728,7 +8566,7 @@
       </c>
       <c r="C68" s="186" t="str">
         <f aca="false">C40</f>
-        <v>zraková paměť </v>
+        <v>zraková paměť</v>
       </c>
       <c r="G68" s="40"/>
       <c r="H68" s="148" t="str">
@@ -8123,11 +8961,11 @@
   </sheetPr>
   <dimension ref="G1:I314"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A1:C314 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.9609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.9375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.56"/>
@@ -11611,13 +12449,4274 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G376"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A292" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C306" activeCellId="0" sqref="C306"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="118.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="52.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="10.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="194" t="s">
+        <v>438</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="194" t="s">
+        <v>440</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="194" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="194" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="194" t="s">
+        <v>443</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="194" t="s">
+        <v>444</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="194" t="s">
+        <v>445</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="194" t="s">
+        <v>446</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="194" t="s">
+        <v>447</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="194" t="s">
+        <v>448</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="255.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="194" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="194" t="s">
+        <v>456</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="194" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="60.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="194" t="s">
+        <v>467</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="194" t="s">
+        <v>563</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="194" t="s">
+        <v>564</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C314"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.91"/>
